--- a/source/cmsc-340-schedule.xlsx
+++ b/source/cmsc-340-schedule.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15EE7AFA-B92D-43B3-9609-89660224678C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{17892F4E-20AC-4682-AEC7-F9E34E234C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18050" windowHeight="12530" xr2:uid="{967B78C6-4EF1-48DA-8505-C8137F259C42}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="cmsc-340-schedule" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
   <si>
     <t>Final exam week</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>Layer 6</t>
+  </si>
+  <si>
+    <t>Topic</t>
   </si>
 </sst>
 </file>
@@ -514,8 +517,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD02309D-0BB9-428D-B359-9037BD3B26F7}">
   <dimension ref="A1:E45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -533,7 +536,9 @@
       <c r="B1" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="3"/>
+      <c r="C1" s="3" t="s">
+        <v>40</v>
+      </c>
       <c r="D1" s="3" t="s">
         <v>27</v>
       </c>

--- a/source/cmsc-340-schedule.xlsx
+++ b/source/cmsc-340-schedule.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\craven\Desktop\WebServer\syllabi\source\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{17892F4E-20AC-4682-AEC7-F9E34E234C8F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0CBD9BEA-653B-4CD6-81BC-FEA2348B9168}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="18050" windowHeight="12530" xr2:uid="{967B78C6-4EF1-48DA-8505-C8137F259C42}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Final exam week</t>
   </si>
@@ -123,9 +123,6 @@
     <t>Symposium day</t>
   </si>
   <si>
-    <t>Class intro</t>
-  </si>
-  <si>
     <t>Layer 1</t>
   </si>
   <si>
@@ -148,6 +145,15 @@
   </si>
   <si>
     <t>Topic</t>
+  </si>
+  <si>
+    <t>Layer 1 - Class introduction, syllabus, Chapter 1 (whole thing), Chapter 3 Getting started with the Raspberry Pi in class</t>
+  </si>
+  <si>
+    <t>Layer 1 - Chapter 2 - work in class</t>
+  </si>
+  <si>
+    <t>Layer 1 - Chapter 2, clone example repository, work in class</t>
   </si>
 </sst>
 </file>
@@ -518,14 +524,14 @@
   <dimension ref="A1:E45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="10.81640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.453125" customWidth="1"/>
-    <col min="3" max="3" width="14.6328125" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="27.36328125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -537,7 +543,7 @@
         <v>26</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>27</v>
@@ -554,7 +560,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -565,7 +571,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.35">
@@ -577,7 +583,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
@@ -595,7 +601,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.35">
@@ -607,7 +613,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
         <v>1</v>
@@ -625,7 +631,7 @@
         <v>6</v>
       </c>
       <c r="C7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
@@ -637,7 +643,7 @@
         <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
@@ -649,7 +655,7 @@
         <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D9" t="s">
         <v>8</v>
@@ -667,7 +673,7 @@
         <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.35">
@@ -679,7 +685,7 @@
         <v>10</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D11" t="s">
         <v>2</v>
@@ -697,7 +703,7 @@
         <v>11</v>
       </c>
       <c r="C12" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.35">
@@ -709,7 +715,7 @@
         <v>12</v>
       </c>
       <c r="C13" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.35">
@@ -721,7 +727,7 @@
         <v>13</v>
       </c>
       <c r="C14" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>9</v>
@@ -739,7 +745,7 @@
         <v>14</v>
       </c>
       <c r="C15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.35">
@@ -751,7 +757,7 @@
         <v>15</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" t="s">
         <v>3</v>
@@ -769,7 +775,7 @@
         <v>16</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.35">
@@ -781,7 +787,7 @@
         <v>17</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.35">
@@ -793,7 +799,7 @@
         <v>18</v>
       </c>
       <c r="C19" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
@@ -811,7 +817,7 @@
         <v>19</v>
       </c>
       <c r="C20" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.35">
@@ -823,7 +829,7 @@
         <v>20</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" t="s">
         <v>4</v>
@@ -841,7 +847,7 @@
         <v>21</v>
       </c>
       <c r="C22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.35">
@@ -853,7 +859,7 @@
         <v>22</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.35">
@@ -865,7 +871,7 @@
         <v>23</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
         <v>24</v>
@@ -883,7 +889,7 @@
         <v>24</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.35">
@@ -895,7 +901,7 @@
         <v>25</v>
       </c>
       <c r="C26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" t="s">
         <v>5</v>
@@ -913,7 +919,7 @@
         <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.35">
@@ -925,7 +931,7 @@
         <v>27</v>
       </c>
       <c r="C28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.35">
